--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>41.09723095498538</v>
+        <v>228.2938969948476</v>
       </c>
       <c r="R2">
-        <v>41.09723095498538</v>
+        <v>2054.645072953629</v>
       </c>
       <c r="S2">
-        <v>0.008121780383894044</v>
+        <v>0.03749888897886376</v>
       </c>
       <c r="T2">
-        <v>0.008121780383894044</v>
+        <v>0.03749888897886377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>240.4054415127494</v>
+        <v>269.3279195149049</v>
       </c>
       <c r="R3">
-        <v>240.4054415127494</v>
+        <v>2423.951275634144</v>
       </c>
       <c r="S3">
-        <v>0.04750977507945171</v>
+        <v>0.04423901771244333</v>
       </c>
       <c r="T3">
-        <v>0.04750977507945171</v>
+        <v>0.04423901771244333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>19.95554949304267</v>
+        <v>34.47225380411333</v>
       </c>
       <c r="R4">
-        <v>19.95554949304267</v>
+        <v>310.25028423702</v>
       </c>
       <c r="S4">
-        <v>0.003943686390938218</v>
+        <v>0.005662311762459574</v>
       </c>
       <c r="T4">
-        <v>0.003943686390938218</v>
+        <v>0.005662311762459574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>39.43325408395825</v>
+        <v>51.3443653736929</v>
       </c>
       <c r="R5">
-        <v>39.43325408395825</v>
+        <v>462.099288363236</v>
       </c>
       <c r="S5">
-        <v>0.007792939379370793</v>
+        <v>0.008433675547979193</v>
       </c>
       <c r="T5">
-        <v>0.007792939379370793</v>
+        <v>0.008433675547979195</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>1073.127031947001</v>
+        <v>1232.067712959102</v>
       </c>
       <c r="R6">
-        <v>1073.127031947001</v>
+        <v>11088.60941663191</v>
       </c>
       <c r="S6">
-        <v>0.2120751660139846</v>
+        <v>0.2023758453067129</v>
       </c>
       <c r="T6">
-        <v>0.2120751660139846</v>
+        <v>0.2023758453067129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>21.14219821193787</v>
+        <v>28.59632583598578</v>
       </c>
       <c r="R7">
-        <v>21.14219821193787</v>
+        <v>257.366932523872</v>
       </c>
       <c r="S7">
-        <v>0.004178196114920653</v>
+        <v>0.004697148990151261</v>
       </c>
       <c r="T7">
-        <v>0.004178196114920653</v>
+        <v>0.004697148990151261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>94.67647452319478</v>
+        <v>476.2766121668891</v>
       </c>
       <c r="R8">
-        <v>94.67647452319478</v>
+        <v>4286.489509502002</v>
       </c>
       <c r="S8">
-        <v>0.01871030032268998</v>
+        <v>0.07823180574677654</v>
       </c>
       <c r="T8">
-        <v>0.01871030032268998</v>
+        <v>0.07823180574677654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>553.8265992555438</v>
+        <v>561.8835665651218</v>
       </c>
       <c r="R9">
-        <v>553.8265992555438</v>
+        <v>5056.952099086096</v>
       </c>
       <c r="S9">
-        <v>0.1094491746862273</v>
+        <v>0.0922933541326733</v>
       </c>
       <c r="T9">
-        <v>0.1094491746862273</v>
+        <v>0.0922933541326733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>45.97197984564504</v>
+        <v>71.91750840343666</v>
       </c>
       <c r="R10">
-        <v>45.97197984564504</v>
+        <v>647.2575756309299</v>
       </c>
       <c r="S10">
-        <v>0.009085145530318006</v>
+        <v>0.01181295995537646</v>
       </c>
       <c r="T10">
-        <v>0.009085145530318006</v>
+        <v>0.01181295995537646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>90.84313927952495</v>
+        <v>107.1168380580638</v>
       </c>
       <c r="R11">
-        <v>90.84313927952495</v>
+        <v>964.051542522574</v>
       </c>
       <c r="S11">
-        <v>0.01795274303078804</v>
+        <v>0.01759469907422413</v>
       </c>
       <c r="T11">
-        <v>0.01795274303078804</v>
+        <v>0.01759469907422413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>2472.183204059813</v>
+        <v>2570.393006614679</v>
       </c>
       <c r="R12">
-        <v>2472.183204059813</v>
+        <v>23133.53705953211</v>
       </c>
       <c r="S12">
-        <v>0.4885616034354659</v>
+        <v>0.4222052505821785</v>
       </c>
       <c r="T12">
-        <v>0.4885616034354659</v>
+        <v>0.4222052505821785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>48.70568512436611</v>
+        <v>59.65889307102756</v>
       </c>
       <c r="R13">
-        <v>48.70568512436611</v>
+        <v>536.930037639248</v>
       </c>
       <c r="S13">
-        <v>0.009625390052689437</v>
+        <v>0.009799395591914827</v>
       </c>
       <c r="T13">
-        <v>0.009625390052689437</v>
+        <v>0.009799395591914827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.07064608029652741</v>
+        <v>0.407093134712</v>
       </c>
       <c r="R14">
-        <v>0.07064608029652741</v>
+        <v>3.663838212408</v>
       </c>
       <c r="S14">
-        <v>1.396132867880573E-05</v>
+        <v>6.686792973255632E-05</v>
       </c>
       <c r="T14">
-        <v>1.396132867880573E-05</v>
+        <v>6.686792973255633E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>0.4132566046465372</v>
+        <v>0.480264906176</v>
       </c>
       <c r="R15">
-        <v>0.4132566046465372</v>
+        <v>4.322384155584</v>
       </c>
       <c r="S15">
-        <v>8.166923432893112E-05</v>
+        <v>7.888691127623401E-05</v>
       </c>
       <c r="T15">
-        <v>8.166923432893112E-05</v>
+        <v>7.888691127623401E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.03430356058273078</v>
+        <v>0.06147084107999999</v>
       </c>
       <c r="R16">
-        <v>0.03430356058273078</v>
+        <v>0.5532375697199999</v>
       </c>
       <c r="S16">
-        <v>6.779191175768181E-06</v>
+        <v>1.009702088158897E-05</v>
       </c>
       <c r="T16">
-        <v>6.779191175768181E-06</v>
+        <v>1.009702088158897E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.06778570647302322</v>
+        <v>0.091557150344</v>
       </c>
       <c r="R17">
-        <v>0.06778570647302322</v>
+        <v>0.824014353096</v>
       </c>
       <c r="S17">
-        <v>1.339605146984277E-05</v>
+        <v>1.503891019937463E-05</v>
       </c>
       <c r="T17">
-        <v>1.339605146984277E-05</v>
+        <v>1.503891019937463E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>1.844703808642014</v>
+        <v>2.197020218448</v>
       </c>
       <c r="R18">
-        <v>1.844703808642014</v>
+        <v>19.773181966032</v>
       </c>
       <c r="S18">
-        <v>0.0003645569022286131</v>
+        <v>0.0003608761265210693</v>
       </c>
       <c r="T18">
-        <v>0.0003645569022286131</v>
+        <v>0.0003608761265210693</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.03634340800628748</v>
+        <v>0.050992900288</v>
       </c>
       <c r="R19">
-        <v>0.03634340800628748</v>
+        <v>0.458936102592</v>
       </c>
       <c r="S19">
-        <v>7.182313050546702E-06</v>
+        <v>8.375944919163296E-06</v>
       </c>
       <c r="T19">
-        <v>7.182313050546702E-06</v>
+        <v>8.375944919163296E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.1682591886410957</v>
+        <v>0.9450919341205556</v>
       </c>
       <c r="R20">
-        <v>0.1682591886410957</v>
+        <v>8.505827407085</v>
       </c>
       <c r="S20">
-        <v>3.325197698141765E-05</v>
+        <v>0.0001552380417475908</v>
       </c>
       <c r="T20">
-        <v>3.325197698141765E-05</v>
+        <v>0.0001552380417475908</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>0.9842615571386251</v>
+        <v>1.114964735008889</v>
       </c>
       <c r="R21">
-        <v>0.9842615571386251</v>
+        <v>10.03468261508</v>
       </c>
       <c r="S21">
-        <v>0.0001945132560426135</v>
+        <v>0.0001831408520499792</v>
       </c>
       <c r="T21">
-        <v>0.0001945132560426135</v>
+        <v>0.0001831408520499792</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.08170147935914102</v>
+        <v>0.1427083660583333</v>
       </c>
       <c r="R22">
-        <v>0.08170147935914102</v>
+        <v>1.284375294525</v>
       </c>
       <c r="S22">
-        <v>1.614613580951495E-05</v>
+        <v>2.344085954823956E-05</v>
       </c>
       <c r="T22">
-        <v>1.614613580951495E-05</v>
+        <v>2.344085954823956E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.1614465788440211</v>
+        <v>0.2125555970438889</v>
       </c>
       <c r="R23">
-        <v>0.1614465788440211</v>
+        <v>1.913000373395</v>
       </c>
       <c r="S23">
-        <v>3.190564489705874E-05</v>
+        <v>3.491376177946965E-05</v>
       </c>
       <c r="T23">
-        <v>3.190564489705874E-05</v>
+        <v>3.491376177946966E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>4.39356811902983</v>
+        <v>5.100518555843333</v>
       </c>
       <c r="R24">
-        <v>4.39356811902983</v>
+        <v>45.90466700259</v>
       </c>
       <c r="S24">
-        <v>0.0008682724975685997</v>
+        <v>0.000837796286181581</v>
       </c>
       <c r="T24">
-        <v>0.0008682724975685997</v>
+        <v>0.000837796286181581</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.0865598249460249</v>
+        <v>0.1183831773377778</v>
       </c>
       <c r="R25">
-        <v>0.0865598249460249</v>
+        <v>1.06544859604</v>
       </c>
       <c r="S25">
-        <v>1.71062592769318E-05</v>
+        <v>1.944527507038289E-05</v>
       </c>
       <c r="T25">
-        <v>1.71062592769318E-05</v>
+        <v>1.944527507038289E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H26">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>0.3241280453441377</v>
+        <v>1.617252005096333</v>
       </c>
       <c r="R26">
-        <v>0.3241280453441377</v>
+        <v>14.555268045867</v>
       </c>
       <c r="S26">
-        <v>6.405533266777424E-05</v>
+        <v>0.0002656450925244004</v>
       </c>
       <c r="T26">
-        <v>6.405533266777424E-05</v>
+        <v>0.0002656450925244004</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H27">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>1.896043700194098</v>
+        <v>1.907940262957333</v>
       </c>
       <c r="R27">
-        <v>1.896043700194098</v>
+        <v>17.171462366616</v>
       </c>
       <c r="S27">
-        <v>0.0003747028734882264</v>
+        <v>0.0003133926970485589</v>
       </c>
       <c r="T27">
-        <v>0.0003747028734882264</v>
+        <v>0.0003133926970485589</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H28">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>0.1573865951706775</v>
+        <v>0.244204169795</v>
       </c>
       <c r="R28">
-        <v>0.1573865951706775</v>
+        <v>2.197837528155</v>
       </c>
       <c r="S28">
-        <v>3.110329653949642E-05</v>
+        <v>4.011226393636347E-05</v>
       </c>
       <c r="T28">
-        <v>3.110329653949642E-05</v>
+        <v>4.011226393636347E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H29">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>0.3110044952126306</v>
+        <v>0.3637275413143333</v>
       </c>
       <c r="R29">
-        <v>0.3110044952126306</v>
+        <v>3.273547871828999</v>
       </c>
       <c r="S29">
-        <v>6.146181019561862E-05</v>
+        <v>5.974482397402458E-05</v>
       </c>
       <c r="T29">
-        <v>6.146181019561862E-05</v>
+        <v>5.974482397402459E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H30">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>8.463601055066784</v>
+        <v>8.728065031201998</v>
       </c>
       <c r="R30">
-        <v>8.463601055066784</v>
+        <v>78.55258528081798</v>
       </c>
       <c r="S30">
-        <v>0.001672606826027722</v>
+        <v>0.001433646479006548</v>
       </c>
       <c r="T30">
-        <v>0.001672606826027722</v>
+        <v>0.001433646479006548</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H31">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>0.1667455257075527</v>
+        <v>0.2025786317786666</v>
       </c>
       <c r="R31">
-        <v>0.1667455257075527</v>
+        <v>1.823207686008</v>
       </c>
       <c r="S31">
-        <v>3.29528415497643E-05</v>
+        <v>3.327497459439221E-05</v>
       </c>
       <c r="T31">
-        <v>3.29528415497643E-05</v>
+        <v>3.327497459439221E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H32">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>8.564915954017716</v>
+        <v>46.1368627571761</v>
       </c>
       <c r="R32">
-        <v>8.564915954017716</v>
+        <v>415.231764814585</v>
       </c>
       <c r="S32">
-        <v>0.001692629035304964</v>
+        <v>0.007578306372348919</v>
       </c>
       <c r="T32">
-        <v>0.001692629035304964</v>
+        <v>0.00757830637234892</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H33">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>50.10197411354896</v>
+        <v>54.42959896389777</v>
       </c>
       <c r="R33">
-        <v>50.10197411354896</v>
+        <v>489.86639067508</v>
       </c>
       <c r="S33">
-        <v>0.0099013296296165</v>
+        <v>0.008940447009660298</v>
       </c>
       <c r="T33">
-        <v>0.0099013296296165</v>
+        <v>0.008940447009660298</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H34">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>4.158859374524789</v>
+        <v>6.966641086891665</v>
       </c>
       <c r="R34">
-        <v>4.158859374524789</v>
+        <v>62.69976978202499</v>
       </c>
       <c r="S34">
-        <v>0.0008218885239345272</v>
+        <v>0.001144320124680501</v>
       </c>
       <c r="T34">
-        <v>0.0008218885239345272</v>
+        <v>0.001144320124680501</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H35">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>8.218132929502341</v>
+        <v>10.37639625843278</v>
       </c>
       <c r="R35">
-        <v>8.218132929502341</v>
+        <v>93.38756632589499</v>
       </c>
       <c r="S35">
-        <v>0.001624096545389491</v>
+        <v>0.001704396553817862</v>
       </c>
       <c r="T35">
-        <v>0.001624096545389491</v>
+        <v>0.001704396553817862</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H36">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>223.646280370517</v>
+        <v>248.9936863341766</v>
       </c>
       <c r="R36">
-        <v>223.646280370517</v>
+        <v>2240.94317700759</v>
       </c>
       <c r="S36">
-        <v>0.0441977702788219</v>
+        <v>0.04089897593930882</v>
       </c>
       <c r="T36">
-        <v>0.0441977702788219</v>
+        <v>0.04089897593930882</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H37">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>4.406164273373388</v>
+        <v>5.779150375115555</v>
       </c>
       <c r="R37">
-        <v>4.406164273373388</v>
+        <v>52.01235337604</v>
       </c>
       <c r="S37">
-        <v>0.0008707617942166408</v>
+        <v>0.000949266367438233</v>
       </c>
       <c r="T37">
-        <v>0.0008707617942166408</v>
+        <v>0.000949266367438233</v>
       </c>
     </row>
   </sheetData>
